--- a/src/inferenceLSTM/newML/LSTMCNN_multilabel/results/kClusteringResult.xlsx
+++ b/src/inferenceLSTM/newML/LSTMCNN_multilabel/results/kClusteringResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GrandCanyonSAR_analysis\src\inferenceLSTM\newML\LSTMCNN_multilabel\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912476EA-40DE-4996-B6D3-505BF568BB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A3268C-A6FC-4BF5-B742-6EC88485E88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-168" windowWidth="23256" windowHeight="12456" xr2:uid="{4812A0D1-E7CC-40F0-966D-194F9E2D9CCA}"/>
+    <workbookView xWindow="5235" yWindow="3750" windowWidth="21600" windowHeight="11295" xr2:uid="{4812A0D1-E7CC-40F0-966D-194F9E2D9CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve"> Window Size</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t xml:space="preserve"> MaxAccuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -431,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACFDBE1-676C-45F6-8BD1-E9019F4483A1}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +444,7 @@
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -486,11 +483,8 @@
       <c r="F2">
         <v>0.651120245456695</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -510,7 +504,7 @@
         <v>0.55555558204650801</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -530,7 +524,7 @@
         <v>0.70919066667556696</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -550,7 +544,7 @@
         <v>0.565157771110534</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -570,7 +564,7 @@
         <v>0.72519433498382502</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -590,7 +584,7 @@
         <v>0.57110196352005005</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -610,7 +604,7 @@
         <v>0.60265201330184903</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -630,7 +624,7 @@
         <v>0.72199362516403198</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -650,7 +644,7 @@
         <v>0.72290807962417603</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -670,7 +664,7 @@
         <v>0.65249198675155595</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -690,7 +684,7 @@
         <v>0.70191085338592496</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -710,7 +704,7 @@
         <v>0.70891720056533802</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -730,7 +724,7 @@
         <v>0.63630574941635099</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -750,7 +744,7 @@
         <v>0.60891717672348</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
